--- a/natmiOut/OldD0/LR-pairs_lrc2p/Adam15-Itgb3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Adam15-Itgb3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.7001225567236</v>
+        <v>35.995988</v>
       </c>
       <c r="H2">
-        <v>31.7001225567236</v>
+        <v>107.987964</v>
       </c>
       <c r="I2">
-        <v>0.5337678059917443</v>
+        <v>0.5613901502831141</v>
       </c>
       <c r="J2">
-        <v>0.5337678059917443</v>
+        <v>0.561390150283114</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N2">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O2">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P2">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q2">
-        <v>194.2939293033033</v>
+        <v>259.6790409880053</v>
       </c>
       <c r="R2">
-        <v>194.2939293033033</v>
+        <v>2337.111368892048</v>
       </c>
       <c r="S2">
-        <v>0.2297473654885529</v>
+        <v>0.2632259495476921</v>
       </c>
       <c r="T2">
-        <v>0.2297473654885529</v>
+        <v>0.2632259495476921</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.7001225567236</v>
+        <v>35.995988</v>
       </c>
       <c r="H3">
-        <v>31.7001225567236</v>
+        <v>107.987964</v>
       </c>
       <c r="I3">
-        <v>0.5337678059917443</v>
+        <v>0.5613901502831141</v>
       </c>
       <c r="J3">
-        <v>0.5337678059917443</v>
+        <v>0.561390150283114</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N3">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O3">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P3">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q3">
-        <v>224.4723396116407</v>
+        <v>255.9440972731254</v>
       </c>
       <c r="R3">
-        <v>224.4723396116407</v>
+        <v>2303.496875458128</v>
       </c>
       <c r="S3">
-        <v>0.2654325270776713</v>
+        <v>0.2594399909192409</v>
       </c>
       <c r="T3">
-        <v>0.2654325270776713</v>
+        <v>0.2594399909192409</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.7001225567236</v>
+        <v>35.995988</v>
       </c>
       <c r="H4">
-        <v>31.7001225567236</v>
+        <v>107.987964</v>
       </c>
       <c r="I4">
-        <v>0.5337678059917443</v>
+        <v>0.5613901502831141</v>
       </c>
       <c r="J4">
-        <v>0.5337678059917443</v>
+        <v>0.561390150283114</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N4">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O4">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P4">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q4">
-        <v>32.6332243554433</v>
+        <v>38.20241007911066</v>
       </c>
       <c r="R4">
-        <v>32.6332243554433</v>
+        <v>343.821690711996</v>
       </c>
       <c r="S4">
-        <v>0.03858791342552005</v>
+        <v>0.03872420981618117</v>
       </c>
       <c r="T4">
-        <v>0.03858791342552005</v>
+        <v>0.03872420981618116</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.3071669509729</v>
+        <v>20.666474</v>
       </c>
       <c r="H5">
-        <v>20.3071669509729</v>
+        <v>61.999422</v>
       </c>
       <c r="I5">
-        <v>0.3419328089326218</v>
+        <v>0.3223124461726698</v>
       </c>
       <c r="J5">
-        <v>0.3419328089326218</v>
+        <v>0.3223124461726698</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N5">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O5">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P5">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q5">
-        <v>124.4651105957902</v>
+        <v>149.0902305257893</v>
       </c>
       <c r="R5">
-        <v>124.4651105957902</v>
+        <v>1341.812074732104</v>
       </c>
       <c r="S5">
-        <v>0.1471766583606686</v>
+        <v>0.151126626735532</v>
       </c>
       <c r="T5">
-        <v>0.1471766583606686</v>
+        <v>0.151126626735532</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.3071669509729</v>
+        <v>20.666474</v>
       </c>
       <c r="H6">
-        <v>20.3071669509729</v>
+        <v>61.999422</v>
       </c>
       <c r="I6">
-        <v>0.3419328089326218</v>
+        <v>0.3223124461726698</v>
       </c>
       <c r="J6">
-        <v>0.3419328089326218</v>
+        <v>0.3223124461726698</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N6">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O6">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P6">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q6">
-        <v>143.7974653950427</v>
+        <v>146.9458771835493</v>
       </c>
       <c r="R6">
-        <v>143.7974653950427</v>
+        <v>1322.512894651944</v>
       </c>
       <c r="S6">
-        <v>0.1700366499195647</v>
+        <v>0.1489529840629108</v>
       </c>
       <c r="T6">
-        <v>0.1700366499195647</v>
+        <v>0.1489529840629108</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.3071669509729</v>
+        <v>20.666474</v>
       </c>
       <c r="H7">
-        <v>20.3071669509729</v>
+        <v>61.999422</v>
       </c>
       <c r="I7">
-        <v>0.3419328089326218</v>
+        <v>0.3223124461726698</v>
       </c>
       <c r="J7">
-        <v>0.3419328089326218</v>
+        <v>0.3223124461726698</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N7">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O7">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P7">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q7">
-        <v>20.90491397781634</v>
+        <v>21.93325307912866</v>
       </c>
       <c r="R7">
-        <v>20.90491397781634</v>
+        <v>197.399277712158</v>
       </c>
       <c r="S7">
-        <v>0.0247195006523885</v>
+        <v>0.02223283537422706</v>
       </c>
       <c r="T7">
-        <v>0.0247195006523885</v>
+        <v>0.02223283537422706</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.3820595704566</v>
+        <v>7.456917333333333</v>
       </c>
       <c r="H8">
-        <v>7.3820595704566</v>
+        <v>22.370752</v>
       </c>
       <c r="I8">
-        <v>0.124299385075634</v>
+        <v>0.116297403544216</v>
       </c>
       <c r="J8">
-        <v>0.124299385075634</v>
+        <v>0.116297403544216</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N8">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O8">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P8">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q8">
-        <v>45.24554621921659</v>
+        <v>53.79502687485155</v>
       </c>
       <c r="R8">
-        <v>45.24554621921659</v>
+        <v>484.155241873664</v>
       </c>
       <c r="S8">
-        <v>0.05350164609481103</v>
+        <v>0.05452980331489471</v>
       </c>
       <c r="T8">
-        <v>0.05350164609481103</v>
+        <v>0.05452980331489471</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.3820595704566</v>
+        <v>7.456917333333333</v>
       </c>
       <c r="H9">
-        <v>7.3820595704566</v>
+        <v>22.370752</v>
       </c>
       <c r="I9">
-        <v>0.124299385075634</v>
+        <v>0.116297403544216</v>
       </c>
       <c r="J9">
-        <v>0.124299385075634</v>
+        <v>0.116297403544216</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N9">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O9">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P9">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q9">
-        <v>52.27324216074466</v>
+        <v>53.02129713234488</v>
       </c>
       <c r="R9">
-        <v>52.27324216074466</v>
+        <v>477.191674191104</v>
       </c>
       <c r="S9">
-        <v>0.06181170824554453</v>
+        <v>0.05374550533924863</v>
       </c>
       <c r="T9">
-        <v>0.06181170824554453</v>
+        <v>0.05374550533924863</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.3820595704566</v>
+        <v>7.456917333333333</v>
       </c>
       <c r="H10">
-        <v>7.3820595704566</v>
+        <v>22.370752</v>
       </c>
       <c r="I10">
-        <v>0.124299385075634</v>
+        <v>0.116297403544216</v>
       </c>
       <c r="J10">
-        <v>0.124299385075634</v>
+        <v>0.116297403544216</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N10">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O10">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P10">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q10">
-        <v>7.599352517861564</v>
+        <v>7.913999023836443</v>
       </c>
       <c r="R10">
-        <v>7.599352517861564</v>
+        <v>71.22599121452799</v>
       </c>
       <c r="S10">
-        <v>0.008986030735278421</v>
+        <v>0.008022094890072697</v>
       </c>
       <c r="T10">
-        <v>0.008986030735278421</v>
+        <v>0.008022094890072697</v>
       </c>
     </row>
   </sheetData>
